--- a/hrtComand.xlsx
+++ b/hrtComand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufubr-my.sharepoint.com/personal/josue_ufu_br/Documents/01 GitHub/NotUFU/virtualHartSci/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufubr-my.sharepoint.com/personal/josue_ufu_br/Documents/01 GitHub/PCUFU/virtualHartSci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F72E2D-3866-44C0-9724-A47331599515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{01F72E2D-3866-44C0-9724-A47331599515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CD9853-38C5-488A-AC6E-AFDB7673B8B7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1305" yWindow="1935" windowWidth="15375" windowHeight="7875" activeTab="5" xr2:uid="{90E15DA9-69D1-48A5-87FF-9F4918EF7958}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90E15DA9-69D1-48A5-87FF-9F4918EF7958}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispositivos" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,41 @@
     <sheet name="hrtCmd0" sheetId="1" r:id="rId3"/>
     <sheet name="hrtCmd1" sheetId="2" r:id="rId4"/>
     <sheet name="hrtCmd2" sheetId="5" r:id="rId5"/>
-    <sheet name="hrtCmd12" sheetId="10" r:id="rId6"/>
+    <sheet name="hrtCmd3" sheetId="11" r:id="rId6"/>
+    <sheet name="hrtCmd6" sheetId="12" r:id="rId7"/>
+    <sheet name="hrtCmd7" sheetId="13" r:id="rId8"/>
+    <sheet name="hrtCmd12" sheetId="14" r:id="rId9"/>
+    <sheet name="hrtCmd13" sheetId="15" r:id="rId10"/>
+    <sheet name="hrtCmd14" sheetId="16" r:id="rId11"/>
+    <sheet name="hrtCmd15" sheetId="17" r:id="rId12"/>
+    <sheet name="hrtCmd16" sheetId="18" r:id="rId13"/>
+    <sheet name="hrtCmd17" sheetId="19" r:id="rId14"/>
+    <sheet name="hrtCmd18" sheetId="20" r:id="rId15"/>
+    <sheet name="hrtCmd19" sheetId="21" r:id="rId16"/>
+    <sheet name="hrtCmd33" sheetId="22" r:id="rId17"/>
+    <sheet name="hrtCmd38" sheetId="23" r:id="rId18"/>
+    <sheet name="hrtCmd40" sheetId="24" r:id="rId19"/>
+    <sheet name="hrtCmd41" sheetId="25" r:id="rId20"/>
+    <sheet name="hrtCmd42" sheetId="26" r:id="rId21"/>
+    <sheet name="hrtCmd45" sheetId="27" r:id="rId22"/>
+    <sheet name="hrtCmd46" sheetId="28" r:id="rId23"/>
+    <sheet name="hrtCmd80" sheetId="29" r:id="rId24"/>
+    <sheet name="hrtCmd130" sheetId="30" r:id="rId25"/>
+    <sheet name="hrtCmd132" sheetId="31" r:id="rId26"/>
+    <sheet name="hrtCmd135" sheetId="32" r:id="rId27"/>
+    <sheet name="hrtCmd136" sheetId="33" r:id="rId28"/>
+    <sheet name="hrtCmd138" sheetId="34" r:id="rId29"/>
+    <sheet name="hrtCmd140" sheetId="35" r:id="rId30"/>
+    <sheet name="hrtCmd152" sheetId="36" r:id="rId31"/>
+    <sheet name="hrtCmd162" sheetId="37" r:id="rId32"/>
+    <sheet name="hrtCmd164" sheetId="38" r:id="rId33"/>
+    <sheet name="hrtCmd166" sheetId="39" r:id="rId34"/>
+    <sheet name="hrtCmd168" sheetId="40" r:id="rId35"/>
+    <sheet name="hrtCmd173" sheetId="41" r:id="rId36"/>
+    <sheet name="hrtCmd185" sheetId="42" r:id="rId37"/>
+    <sheet name="hrtCmd187" sheetId="43" r:id="rId38"/>
+    <sheet name="hrtCmd198" sheetId="44" r:id="rId39"/>
+    <sheet name="hrtCmd223" sheetId="45" r:id="rId40"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Dispositivos!$A$1:$D$213</definedName>
@@ -53,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="320">
   <si>
     <t>Byte</t>
   </si>
@@ -1017,93 +1051,6 @@
     <t>Medidor de Densidade</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Variable 23</t>
-  </si>
-  <si>
-    <t>Variable 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 21 </t>
-  </si>
-  <si>
-    <t>Variable 20</t>
-  </si>
-  <si>
-    <t>Variable 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 18 </t>
-  </si>
-  <si>
-    <t>Variable 17</t>
-  </si>
-  <si>
-    <t>Variable 16</t>
-  </si>
-  <si>
-    <t>Variable 15</t>
-  </si>
-  <si>
-    <t>Variable 14</t>
-  </si>
-  <si>
-    <t>Variable 13</t>
-  </si>
-  <si>
-    <t>Variable 12</t>
-  </si>
-  <si>
-    <t>Variable 11</t>
-  </si>
-  <si>
-    <t>Variable 10</t>
-  </si>
-  <si>
-    <t>Variable 09</t>
-  </si>
-  <si>
-    <t>Variable 08</t>
-  </si>
-  <si>
-    <t>Variable 07</t>
-  </si>
-  <si>
-    <t>Variable 06</t>
-  </si>
-  <si>
-    <t>Variable 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 04 </t>
-  </si>
-  <si>
-    <t>Variable 03</t>
-  </si>
-  <si>
-    <t>Variable 02</t>
-  </si>
-  <si>
-    <t>Variable 01</t>
-  </si>
-  <si>
-    <t>Variable 00</t>
-  </si>
-  <si>
     <t>83.45</t>
   </si>
   <si>
@@ -1113,13 +1060,13 @@
     <t>00000100</t>
   </si>
   <si>
-    <t>Comando 12 - Ver 5.2 Long Frame</t>
-  </si>
-  <si>
     <t>DELIMITER (Short Frame)</t>
   </si>
   <si>
     <t>DELIMITER  (Long Frame)</t>
+  </si>
+  <si>
+    <t>hrtCmd</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1662,22 +1609,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1808,9 +1744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,6 +1808,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,12 +1845,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1911,35 +1859,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1965,11 +1886,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7792FDDC-C046-4481-AC1E-6293BEA38FA7}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -3149,3864 +3076,3864 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="58">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58">
+      <c r="B2" s="57">
+        <v>1</v>
+      </c>
+      <c r="C2" s="57">
         <v>150</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="58">
-        <v>1</v>
-      </c>
-      <c r="C3" s="58">
+      <c r="B3" s="57">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57">
         <v>151</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="58">
-        <v>1</v>
-      </c>
-      <c r="C4" s="58">
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
         <v>152</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="58">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57">
         <v>153</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="58">
-        <v>1</v>
-      </c>
-      <c r="C6" s="58">
+      <c r="B6" s="57">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
         <v>154</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="58">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="57">
         <v>155</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="62"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="58">
-        <v>1</v>
-      </c>
-      <c r="C8" s="58">
+      <c r="B8" s="57">
+        <v>1</v>
+      </c>
+      <c r="C8" s="57">
         <v>156</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="58">
-        <v>1</v>
-      </c>
-      <c r="C9" s="58">
+      <c r="B9" s="57">
+        <v>1</v>
+      </c>
+      <c r="C9" s="57">
         <v>157</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="62"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="58">
-        <v>1</v>
-      </c>
-      <c r="C10" s="58">
+      <c r="B10" s="57">
+        <v>1</v>
+      </c>
+      <c r="C10" s="57">
         <v>158</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="58">
-        <v>1</v>
-      </c>
-      <c r="C11" s="58">
+      <c r="B11" s="57">
+        <v>1</v>
+      </c>
+      <c r="C11" s="57">
         <v>159</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="62"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="58">
-        <v>1</v>
-      </c>
-      <c r="C12" s="58">
+      <c r="B12" s="57">
+        <v>1</v>
+      </c>
+      <c r="C12" s="57">
         <v>160</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <v>3</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>161</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="62"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="58">
-        <v>1</v>
-      </c>
-      <c r="C14" s="58">
+      <c r="B14" s="57">
+        <v>1</v>
+      </c>
+      <c r="C14" s="57">
         <v>162</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>8</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="57">
         <v>163</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="63" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="57">
         <v>32</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="57">
         <v>164</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="60" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>16</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>165</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="62"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>3</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>166</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="58">
-        <v>1</v>
-      </c>
-      <c r="C19" s="58">
+      <c r="B19" s="57">
+        <v>1</v>
+      </c>
+      <c r="C19" s="57">
         <v>167</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="62"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="58">
-        <v>1</v>
-      </c>
-      <c r="C20" s="58">
+      <c r="B20" s="57">
+        <v>1</v>
+      </c>
+      <c r="C20" s="57">
         <v>168</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="57">
         <v>3</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="57">
         <v>169</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="62"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="58">
-        <v>1</v>
-      </c>
-      <c r="C22" s="58">
+      <c r="B22" s="57">
+        <v>1</v>
+      </c>
+      <c r="C22" s="57">
         <v>171</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="58">
-        <v>1</v>
-      </c>
-      <c r="C23" s="58">
+      <c r="B23" s="57">
+        <v>1</v>
+      </c>
+      <c r="C23" s="57">
         <v>2025</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="62"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="58">
-        <v>1</v>
-      </c>
-      <c r="C24" s="58">
+      <c r="B24" s="57">
+        <v>1</v>
+      </c>
+      <c r="C24" s="57">
         <v>2026</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="58">
-        <v>1</v>
-      </c>
-      <c r="C25" s="58">
+      <c r="B25" s="57">
+        <v>1</v>
+      </c>
+      <c r="C25" s="57">
         <v>2027</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="62"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="58">
-        <v>1</v>
-      </c>
-      <c r="C26" s="58">
+      <c r="B26" s="57">
+        <v>1</v>
+      </c>
+      <c r="C26" s="57">
         <v>2028</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="58">
-        <v>1</v>
-      </c>
-      <c r="C27" s="58">
+      <c r="B27" s="57">
+        <v>1</v>
+      </c>
+      <c r="C27" s="57">
         <v>2029</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="62"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="58">
-        <v>1</v>
-      </c>
-      <c r="C28" s="58">
+      <c r="B28" s="57">
+        <v>1</v>
+      </c>
+      <c r="C28" s="57">
         <v>2030</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="58">
-        <v>1</v>
-      </c>
-      <c r="C29" s="58">
+      <c r="B29" s="57">
+        <v>1</v>
+      </c>
+      <c r="C29" s="57">
         <v>2031</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="62"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="58">
-        <v>1</v>
-      </c>
-      <c r="C30" s="58">
+      <c r="B30" s="57">
+        <v>1</v>
+      </c>
+      <c r="C30" s="57">
         <v>2032</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="58">
-        <v>1</v>
-      </c>
-      <c r="C31" s="58">
+      <c r="B31" s="57">
+        <v>1</v>
+      </c>
+      <c r="C31" s="57">
         <v>2033</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="62"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="58">
-        <v>1</v>
-      </c>
-      <c r="C32" s="58">
+      <c r="B32" s="57">
+        <v>1</v>
+      </c>
+      <c r="C32" s="57">
         <v>2034</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="58">
-        <v>1</v>
-      </c>
-      <c r="C33" s="58">
+      <c r="B33" s="57">
+        <v>1</v>
+      </c>
+      <c r="C33" s="57">
         <v>2035</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="62"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="58">
-        <v>1</v>
-      </c>
-      <c r="C34" s="58">
+      <c r="B34" s="57">
+        <v>1</v>
+      </c>
+      <c r="C34" s="57">
         <v>2036</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="58">
-        <v>1</v>
-      </c>
-      <c r="C35" s="58">
+      <c r="B35" s="57">
+        <v>1</v>
+      </c>
+      <c r="C35" s="57">
         <v>2037</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="58">
-        <v>1</v>
-      </c>
-      <c r="C36" s="58">
+      <c r="B36" s="57">
+        <v>1</v>
+      </c>
+      <c r="C36" s="57">
         <v>2038</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="58">
-        <v>1</v>
-      </c>
-      <c r="C37" s="58">
+      <c r="B37" s="57">
+        <v>1</v>
+      </c>
+      <c r="C37" s="57">
         <v>2039</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="62"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="58">
-        <v>1</v>
-      </c>
-      <c r="C38" s="58">
+      <c r="B38" s="57">
+        <v>1</v>
+      </c>
+      <c r="C38" s="57">
         <v>2040</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="58">
-        <v>1</v>
-      </c>
-      <c r="C39" s="58">
+      <c r="B39" s="57">
+        <v>1</v>
+      </c>
+      <c r="C39" s="57">
         <v>4021</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="62"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="58">
-        <v>1</v>
-      </c>
-      <c r="C40" s="58">
+      <c r="B40" s="57">
+        <v>1</v>
+      </c>
+      <c r="C40" s="57">
         <v>4022</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="58">
-        <v>1</v>
-      </c>
-      <c r="C41" s="58">
+      <c r="B41" s="57">
+        <v>1</v>
+      </c>
+      <c r="C41" s="57">
         <v>4023</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="62"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="58">
-        <v>1</v>
-      </c>
-      <c r="C42" s="58">
+      <c r="B42" s="57">
+        <v>1</v>
+      </c>
+      <c r="C42" s="57">
         <v>4024</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="58">
-        <v>1</v>
-      </c>
-      <c r="C43" s="58">
+      <c r="B43" s="57">
+        <v>1</v>
+      </c>
+      <c r="C43" s="57">
         <v>4093</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="62"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="58">
-        <v>1</v>
-      </c>
-      <c r="C44" s="58">
+      <c r="B44" s="57">
+        <v>1</v>
+      </c>
+      <c r="C44" s="57">
         <v>4095</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="58">
-        <v>1</v>
-      </c>
-      <c r="C45" s="58">
+      <c r="B45" s="57">
+        <v>1</v>
+      </c>
+      <c r="C45" s="57">
         <v>5020</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="62"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="58">
-        <v>1</v>
-      </c>
-      <c r="C46" s="58">
+      <c r="B46" s="57">
+        <v>1</v>
+      </c>
+      <c r="C46" s="57">
         <v>16384</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="58">
-        <v>1</v>
-      </c>
-      <c r="C47" s="58">
+      <c r="B47" s="57">
+        <v>1</v>
+      </c>
+      <c r="C47" s="57">
         <v>16385</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="62"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="58">
-        <v>1</v>
-      </c>
-      <c r="C48" s="58">
+      <c r="B48" s="57">
+        <v>1</v>
+      </c>
+      <c r="C48" s="57">
         <v>16391</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="58">
-        <v>4</v>
-      </c>
-      <c r="C49" s="58">
+      <c r="B49" s="57">
+        <v>4</v>
+      </c>
+      <c r="C49" s="57">
         <v>16392</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="62"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="58">
-        <v>1</v>
-      </c>
-      <c r="C50" s="58">
+      <c r="B50" s="57">
+        <v>1</v>
+      </c>
+      <c r="C50" s="57">
         <v>16393</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="58">
-        <v>4</v>
-      </c>
-      <c r="C51" s="58">
+      <c r="B51" s="57">
+        <v>4</v>
+      </c>
+      <c r="C51" s="57">
         <v>16394</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="62"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="58">
-        <v>4</v>
-      </c>
-      <c r="C52" s="58">
+      <c r="B52" s="57">
+        <v>4</v>
+      </c>
+      <c r="C52" s="57">
         <v>16395</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="58">
-        <v>4</v>
-      </c>
-      <c r="C53" s="58">
+      <c r="B53" s="57">
+        <v>4</v>
+      </c>
+      <c r="C53" s="57">
         <v>16396</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="62"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="58">
-        <v>4</v>
-      </c>
-      <c r="C54" s="58">
+      <c r="B54" s="57">
+        <v>4</v>
+      </c>
+      <c r="C54" s="57">
         <v>16397</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="61"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="58">
-        <v>4</v>
-      </c>
-      <c r="C55" s="58">
+      <c r="B55" s="57">
+        <v>4</v>
+      </c>
+      <c r="C55" s="57">
         <v>16398</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="62"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="57">
         <v>3</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="57">
         <v>16399</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="61"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="58">
-        <v>4</v>
-      </c>
-      <c r="C57" s="58">
+      <c r="B57" s="57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="57">
         <v>16400</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="62"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="61"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="58">
-        <v>4</v>
-      </c>
-      <c r="C58" s="58">
+      <c r="B58" s="57">
+        <v>4</v>
+      </c>
+      <c r="C58" s="57">
         <v>16401</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="61"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="60"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="58">
-        <v>4</v>
-      </c>
-      <c r="C59" s="58">
+      <c r="B59" s="57">
+        <v>4</v>
+      </c>
+      <c r="C59" s="57">
         <v>16402</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="62"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="61"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="58">
-        <v>1</v>
-      </c>
-      <c r="C60" s="58">
+      <c r="B60" s="57">
+        <v>1</v>
+      </c>
+      <c r="C60" s="57">
         <v>16403</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="58">
-        <v>1</v>
-      </c>
-      <c r="C61" s="58">
+      <c r="B61" s="57">
+        <v>1</v>
+      </c>
+      <c r="C61" s="57">
         <v>16404</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="62"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="61"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="58">
-        <v>1</v>
-      </c>
-      <c r="C62" s="58">
+      <c r="B62" s="57">
+        <v>1</v>
+      </c>
+      <c r="C62" s="57">
         <v>16405</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="61"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="60"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="58">
-        <v>4</v>
-      </c>
-      <c r="C63" s="58">
+      <c r="B63" s="57">
+        <v>4</v>
+      </c>
+      <c r="C63" s="57">
         <v>16406</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="62"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="61"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="58">
+      <c r="B64" s="57">
         <v>3</v>
       </c>
-      <c r="C64" s="58">
+      <c r="C64" s="57">
         <v>16407</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="61"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="58">
-        <v>4</v>
-      </c>
-      <c r="C65" s="58">
+      <c r="B65" s="57">
+        <v>4</v>
+      </c>
+      <c r="C65" s="57">
         <v>16408</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="62"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="58">
-        <v>4</v>
-      </c>
-      <c r="C66" s="58">
+      <c r="B66" s="57">
+        <v>4</v>
+      </c>
+      <c r="C66" s="57">
         <v>16409</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="61"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="58">
-        <v>4</v>
-      </c>
-      <c r="C67" s="58">
+      <c r="B67" s="57">
+        <v>4</v>
+      </c>
+      <c r="C67" s="57">
         <v>16410</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="62"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="58">
-        <v>1</v>
-      </c>
-      <c r="C68" s="58">
+      <c r="B68" s="57">
+        <v>1</v>
+      </c>
+      <c r="C68" s="57">
         <v>16411</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="58"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="58">
-        <v>4</v>
-      </c>
-      <c r="C69" s="58">
+      <c r="B69" s="57">
+        <v>4</v>
+      </c>
+      <c r="C69" s="57">
         <v>16412</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="62"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="61"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="58">
-        <v>4</v>
-      </c>
-      <c r="C70" s="58">
+      <c r="B70" s="57">
+        <v>4</v>
+      </c>
+      <c r="C70" s="57">
         <v>16413</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="61"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="58">
-        <v>4</v>
-      </c>
-      <c r="C71" s="58">
+      <c r="B71" s="57">
+        <v>4</v>
+      </c>
+      <c r="C71" s="57">
         <v>16414</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="62"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="61"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="58">
-        <v>4</v>
-      </c>
-      <c r="C72" s="58">
+      <c r="B72" s="57">
+        <v>4</v>
+      </c>
+      <c r="C72" s="57">
         <v>16415</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="61"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="58">
-        <v>1</v>
-      </c>
-      <c r="C73" s="58">
+      <c r="B73" s="57">
+        <v>1</v>
+      </c>
+      <c r="C73" s="57">
         <v>16416</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="62"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="61"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="58">
-        <v>4</v>
-      </c>
-      <c r="C74" s="58">
+      <c r="B74" s="57">
+        <v>4</v>
+      </c>
+      <c r="C74" s="57">
         <v>16417</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="58"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="61"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="58">
+      <c r="B75" s="57">
         <v>3</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="57">
         <v>16418</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="62"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="61"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="58">
-        <v>4</v>
-      </c>
-      <c r="C76" s="58">
+      <c r="B76" s="57">
+        <v>4</v>
+      </c>
+      <c r="C76" s="57">
         <v>16419</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="61"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="60"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="58">
-        <v>4</v>
-      </c>
-      <c r="C77" s="58">
+      <c r="B77" s="57">
+        <v>4</v>
+      </c>
+      <c r="C77" s="57">
         <v>16420</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="62"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="61"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="58">
-        <v>4</v>
-      </c>
-      <c r="C78" s="58">
+      <c r="B78" s="57">
+        <v>4</v>
+      </c>
+      <c r="C78" s="57">
         <v>16421</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="58"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="58">
-        <v>1</v>
-      </c>
-      <c r="C79" s="58">
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="57">
         <v>16423</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="62"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="61"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="58">
-        <v>1</v>
-      </c>
-      <c r="C80" s="58">
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="57">
         <v>16424</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="58"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="61"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="60"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="58">
-        <v>1</v>
-      </c>
-      <c r="C81" s="58">
+      <c r="B81" s="57">
+        <v>1</v>
+      </c>
+      <c r="C81" s="57">
         <v>16427</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="62"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="61"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="58">
-        <v>1</v>
-      </c>
-      <c r="C82" s="58">
+      <c r="B82" s="57">
+        <v>1</v>
+      </c>
+      <c r="C82" s="57">
         <v>16428</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="61"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="60"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="58">
-        <v>4</v>
-      </c>
-      <c r="C83" s="58">
+      <c r="B83" s="57">
+        <v>4</v>
+      </c>
+      <c r="C83" s="57">
         <v>16429</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="62"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="57" t="s">
+      <c r="A84" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="58">
-        <v>4</v>
-      </c>
-      <c r="C84" s="58">
+      <c r="B84" s="57">
+        <v>4</v>
+      </c>
+      <c r="C84" s="57">
         <v>16430</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="61"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="60"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="58">
-        <v>4</v>
-      </c>
-      <c r="C85" s="58">
+      <c r="B85" s="57">
+        <v>4</v>
+      </c>
+      <c r="C85" s="57">
         <v>16432</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="62"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="61"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="58">
-        <v>1</v>
-      </c>
-      <c r="C86" s="58">
+      <c r="B86" s="57">
+        <v>1</v>
+      </c>
+      <c r="C86" s="57">
         <v>16436</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="E86" s="58"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="61"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="58">
-        <v>1</v>
-      </c>
-      <c r="C87" s="58">
+      <c r="B87" s="57">
+        <v>1</v>
+      </c>
+      <c r="C87" s="57">
         <v>16437</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="62"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="61"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="58">
-        <v>1</v>
-      </c>
-      <c r="C88" s="58">
+      <c r="B88" s="57">
+        <v>1</v>
+      </c>
+      <c r="C88" s="57">
         <v>16438</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="58"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="61"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="60"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="58">
-        <v>1</v>
-      </c>
-      <c r="C89" s="58">
+      <c r="B89" s="57">
+        <v>1</v>
+      </c>
+      <c r="C89" s="57">
         <v>16443</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="62"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="61"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="57" t="s">
+      <c r="A90" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="58">
-        <v>4</v>
-      </c>
-      <c r="C90" s="58">
+      <c r="B90" s="57">
+        <v>4</v>
+      </c>
+      <c r="C90" s="57">
         <v>16444</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E90" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="61"/>
+      <c r="E90" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="60"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="58">
-        <v>4</v>
-      </c>
-      <c r="C91" s="58">
+      <c r="B91" s="57">
+        <v>4</v>
+      </c>
+      <c r="C91" s="57">
         <v>16445</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="62"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="61"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="58">
-        <v>4</v>
-      </c>
-      <c r="C92" s="58">
+      <c r="B92" s="57">
+        <v>4</v>
+      </c>
+      <c r="C92" s="57">
         <v>16446</v>
       </c>
-      <c r="D92" s="59" t="s">
+      <c r="D92" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="61"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="58">
-        <v>1</v>
-      </c>
-      <c r="C93" s="58">
+      <c r="B93" s="57">
+        <v>1</v>
+      </c>
+      <c r="C93" s="57">
         <v>16447</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="62"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="61"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="57" t="s">
+      <c r="A94" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="58">
-        <v>1</v>
-      </c>
-      <c r="C94" s="58">
+      <c r="B94" s="57">
+        <v>1</v>
+      </c>
+      <c r="C94" s="57">
         <v>16448</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="E94" s="58"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="61"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="60"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B95" s="58">
-        <v>4</v>
-      </c>
-      <c r="C95" s="58">
+      <c r="B95" s="57">
+        <v>4</v>
+      </c>
+      <c r="C95" s="57">
         <v>16449</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="62"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="61"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="58">
-        <v>4</v>
-      </c>
-      <c r="C96" s="58">
+      <c r="B96" s="57">
+        <v>4</v>
+      </c>
+      <c r="C96" s="57">
         <v>16452</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="58"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="61"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="57" t="s">
+      <c r="A97" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="58">
-        <v>4</v>
-      </c>
-      <c r="C97" s="58">
+      <c r="B97" s="57">
+        <v>4</v>
+      </c>
+      <c r="C97" s="57">
         <v>16453</v>
       </c>
-      <c r="D97" s="59" t="s">
+      <c r="D97" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="62"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="61"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="57" t="s">
+      <c r="A98" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="58">
-        <v>4</v>
-      </c>
-      <c r="C98" s="58">
+      <c r="B98" s="57">
+        <v>4</v>
+      </c>
+      <c r="C98" s="57">
         <v>16454</v>
       </c>
-      <c r="D98" s="59" t="s">
+      <c r="D98" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E98" s="58"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="58">
-        <v>4</v>
-      </c>
-      <c r="C99" s="58">
+      <c r="B99" s="57">
+        <v>4</v>
+      </c>
+      <c r="C99" s="57">
         <v>16463</v>
       </c>
-      <c r="D99" s="59" t="s">
+      <c r="D99" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="62"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="61"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="58">
-        <v>4</v>
-      </c>
-      <c r="C100" s="58">
+      <c r="B100" s="57">
+        <v>4</v>
+      </c>
+      <c r="C100" s="57">
         <v>16464</v>
       </c>
-      <c r="D100" s="59" t="s">
+      <c r="D100" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="E100" s="58"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="58">
-        <v>4</v>
-      </c>
-      <c r="C101" s="58">
+      <c r="B101" s="57">
+        <v>4</v>
+      </c>
+      <c r="C101" s="57">
         <v>16465</v>
       </c>
-      <c r="D101" s="59" t="s">
+      <c r="D101" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="62"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="61"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B102" s="58">
-        <v>4</v>
-      </c>
-      <c r="C102" s="58">
+      <c r="B102" s="57">
+        <v>4</v>
+      </c>
+      <c r="C102" s="57">
         <v>16468</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D102" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E102" s="58"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="58">
-        <v>4</v>
-      </c>
-      <c r="C103" s="58">
+      <c r="B103" s="57">
+        <v>4</v>
+      </c>
+      <c r="C103" s="57">
         <v>16469</v>
       </c>
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="62"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="61"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="58">
-        <v>4</v>
-      </c>
-      <c r="C104" s="58">
+      <c r="B104" s="57">
+        <v>4</v>
+      </c>
+      <c r="C104" s="57">
         <v>16472</v>
       </c>
-      <c r="D104" s="59" t="s">
+      <c r="D104" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E104" s="58"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="58">
-        <v>1</v>
-      </c>
-      <c r="C105" s="58">
+      <c r="B105" s="57">
+        <v>1</v>
+      </c>
+      <c r="C105" s="57">
         <v>16473</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="D105" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="62"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="61"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="58">
-        <v>1</v>
-      </c>
-      <c r="C106" s="58">
+      <c r="B106" s="57">
+        <v>1</v>
+      </c>
+      <c r="C106" s="57">
         <v>16474</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="E106" s="58"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="61"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="B107" s="58">
-        <v>1</v>
-      </c>
-      <c r="C107" s="58">
+      <c r="B107" s="57">
+        <v>1</v>
+      </c>
+      <c r="C107" s="57">
         <v>16479</v>
       </c>
-      <c r="D107" s="59" t="s">
+      <c r="D107" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="62"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="61"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B108" s="58">
-        <v>1</v>
-      </c>
-      <c r="C108" s="58">
+      <c r="B108" s="57">
+        <v>1</v>
+      </c>
+      <c r="C108" s="57">
         <v>16482</v>
       </c>
-      <c r="D108" s="59" t="s">
+      <c r="D108" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="E108" s="58"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="61"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B109" s="58">
-        <v>1</v>
-      </c>
-      <c r="C109" s="58">
+      <c r="B109" s="57">
+        <v>1</v>
+      </c>
+      <c r="C109" s="57">
         <v>16485</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="62"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B110" s="58">
-        <v>4</v>
-      </c>
-      <c r="C110" s="58">
+      <c r="B110" s="57">
+        <v>4</v>
+      </c>
+      <c r="C110" s="57">
         <v>16486</v>
       </c>
-      <c r="D110" s="59" t="s">
+      <c r="D110" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="E110" s="58"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="61"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="57" t="s">
+      <c r="A111" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B111" s="58">
-        <v>4</v>
-      </c>
-      <c r="C111" s="58">
+      <c r="B111" s="57">
+        <v>4</v>
+      </c>
+      <c r="C111" s="57">
         <v>16487</v>
       </c>
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="62"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="61"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="57" t="s">
+      <c r="A112" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="58">
-        <v>1</v>
-      </c>
-      <c r="C112" s="58">
+      <c r="B112" s="57">
+        <v>1</v>
+      </c>
+      <c r="C112" s="57">
         <v>16489</v>
       </c>
-      <c r="D112" s="59" t="s">
+      <c r="D112" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="E112" s="58"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="61"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="57" t="s">
+      <c r="A113" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B113" s="58">
-        <v>1</v>
-      </c>
-      <c r="C113" s="58">
+      <c r="B113" s="57">
+        <v>1</v>
+      </c>
+      <c r="C113" s="57">
         <v>16490</v>
       </c>
-      <c r="D113" s="59" t="s">
+      <c r="D113" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="E113" s="58"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="58"/>
-      <c r="H113" s="62"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="61"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="57" t="s">
+      <c r="A114" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B114" s="58">
-        <v>1</v>
-      </c>
-      <c r="C114" s="58">
+      <c r="B114" s="57">
+        <v>1</v>
+      </c>
+      <c r="C114" s="57">
         <v>16491</v>
       </c>
-      <c r="D114" s="59" t="s">
+      <c r="D114" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="E114" s="58"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="61"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="60"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="57" t="s">
+      <c r="A115" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="58">
-        <v>4</v>
-      </c>
-      <c r="C115" s="58">
+      <c r="B115" s="57">
+        <v>4</v>
+      </c>
+      <c r="C115" s="57">
         <v>16492</v>
       </c>
-      <c r="D115" s="59" t="s">
+      <c r="D115" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="62"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="61"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="57" t="s">
+      <c r="A116" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="58">
-        <v>4</v>
-      </c>
-      <c r="C116" s="58">
+      <c r="B116" s="57">
+        <v>4</v>
+      </c>
+      <c r="C116" s="57">
         <v>16493</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="E116" s="58"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="61"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="60"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="57" t="s">
+      <c r="A117" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B117" s="58">
-        <v>1</v>
-      </c>
-      <c r="C117" s="58">
+      <c r="B117" s="57">
+        <v>1</v>
+      </c>
+      <c r="C117" s="57">
         <v>16494</v>
       </c>
-      <c r="D117" s="59" t="s">
+      <c r="D117" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="E117" s="58"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="62"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="61"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="57" t="s">
+      <c r="A118" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B118" s="58">
-        <v>1</v>
-      </c>
-      <c r="C118" s="58">
+      <c r="B118" s="57">
+        <v>1</v>
+      </c>
+      <c r="C118" s="57">
         <v>16495</v>
       </c>
-      <c r="D118" s="59" t="s">
+      <c r="D118" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="E118" s="58"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="61"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="60"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="57" t="s">
+      <c r="A119" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="58">
-        <v>1</v>
-      </c>
-      <c r="C119" s="58">
+      <c r="B119" s="57">
+        <v>1</v>
+      </c>
+      <c r="C119" s="57">
         <v>16496</v>
       </c>
-      <c r="D119" s="59" t="s">
+      <c r="D119" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="E119" s="58"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="62"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="61"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="57" t="s">
+      <c r="A120" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B120" s="58">
-        <v>1</v>
-      </c>
-      <c r="C120" s="58">
+      <c r="B120" s="57">
+        <v>1</v>
+      </c>
+      <c r="C120" s="57">
         <v>16497</v>
       </c>
-      <c r="D120" s="59" t="s">
+      <c r="D120" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E120" s="58"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="61"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="60"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B121" s="58">
-        <v>1</v>
-      </c>
-      <c r="C121" s="58">
+      <c r="B121" s="57">
+        <v>1</v>
+      </c>
+      <c r="C121" s="57">
         <v>16498</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="E121" s="58"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="62"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="61"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="57" t="s">
+      <c r="A122" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B122" s="58">
-        <v>1</v>
-      </c>
-      <c r="C122" s="58">
+      <c r="B122" s="57">
+        <v>1</v>
+      </c>
+      <c r="C122" s="57">
         <v>16499</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="E122" s="58"/>
-      <c r="F122" s="60"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="61"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="60"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="57" t="s">
+      <c r="A123" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="58">
-        <v>1</v>
-      </c>
-      <c r="C123" s="58">
+      <c r="B123" s="57">
+        <v>1</v>
+      </c>
+      <c r="C123" s="57">
         <v>16505</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="D123" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="E123" s="58"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="62"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="61"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="57" t="s">
+      <c r="A124" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B124" s="58">
-        <v>1</v>
-      </c>
-      <c r="C124" s="58">
+      <c r="B124" s="57">
+        <v>1</v>
+      </c>
+      <c r="C124" s="57">
         <v>16506</v>
       </c>
-      <c r="D124" s="59" t="s">
+      <c r="D124" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="61"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="60"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B125" s="58">
-        <v>1</v>
-      </c>
-      <c r="C125" s="58">
+      <c r="B125" s="57">
+        <v>1</v>
+      </c>
+      <c r="C125" s="57">
         <v>16509</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="E125" s="58"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="58"/>
-      <c r="H125" s="62"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="61"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B126" s="58">
-        <v>1</v>
-      </c>
-      <c r="C126" s="58">
+      <c r="B126" s="57">
+        <v>1</v>
+      </c>
+      <c r="C126" s="57">
         <v>16510</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="E126" s="58"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="61"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="60"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="57" t="s">
+      <c r="A127" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B127" s="58">
-        <v>1</v>
-      </c>
-      <c r="C127" s="58">
+      <c r="B127" s="57">
+        <v>1</v>
+      </c>
+      <c r="C127" s="57">
         <v>16511</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="D127" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="62"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="61"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="57" t="s">
+      <c r="A128" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B128" s="58">
-        <v>1</v>
-      </c>
-      <c r="C128" s="58">
+      <c r="B128" s="57">
+        <v>1</v>
+      </c>
+      <c r="C128" s="57">
         <v>16512</v>
       </c>
-      <c r="D128" s="59" t="s">
+      <c r="D128" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="E128" s="58"/>
-      <c r="F128" s="60"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="61"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="60"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B129" s="58">
-        <v>1</v>
-      </c>
-      <c r="C129" s="58">
+      <c r="B129" s="57">
+        <v>1</v>
+      </c>
+      <c r="C129" s="57">
         <v>16513</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="E129" s="58"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="62"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="61"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="57" t="s">
+      <c r="A130" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B130" s="58">
-        <v>1</v>
-      </c>
-      <c r="C130" s="58">
+      <c r="B130" s="57">
+        <v>1</v>
+      </c>
+      <c r="C130" s="57">
         <v>16514</v>
       </c>
-      <c r="D130" s="59" t="s">
+      <c r="D130" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="E130" s="58"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60"/>
-      <c r="H130" s="61"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="60"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="57" t="s">
+      <c r="A131" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B131" s="58">
-        <v>1</v>
-      </c>
-      <c r="C131" s="58">
+      <c r="B131" s="57">
+        <v>1</v>
+      </c>
+      <c r="C131" s="57">
         <v>16515</v>
       </c>
-      <c r="D131" s="59" t="s">
+      <c r="D131" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="E131" s="58"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="62"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="61"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B132" s="58">
-        <v>1</v>
-      </c>
-      <c r="C132" s="58">
+      <c r="B132" s="57">
+        <v>1</v>
+      </c>
+      <c r="C132" s="57">
         <v>16516</v>
       </c>
-      <c r="D132" s="59" t="s">
+      <c r="D132" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="E132" s="58"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="61"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="60"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="57" t="s">
+      <c r="A133" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B133" s="58">
-        <v>1</v>
-      </c>
-      <c r="C133" s="58">
+      <c r="B133" s="57">
+        <v>1</v>
+      </c>
+      <c r="C133" s="57">
         <v>16517</v>
       </c>
-      <c r="D133" s="59" t="s">
+      <c r="D133" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="58"/>
-      <c r="H133" s="62"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="61"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B134" s="58">
-        <v>1</v>
-      </c>
-      <c r="C134" s="58">
+      <c r="B134" s="57">
+        <v>1</v>
+      </c>
+      <c r="C134" s="57">
         <v>16518</v>
       </c>
-      <c r="D134" s="59" t="s">
+      <c r="D134" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E134" s="58"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="61"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="60"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B135" s="58">
-        <v>1</v>
-      </c>
-      <c r="C135" s="58">
+      <c r="B135" s="57">
+        <v>1</v>
+      </c>
+      <c r="C135" s="57">
         <v>16519</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="D135" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="E135" s="58"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="58"/>
-      <c r="H135" s="62"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="61"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="58">
-        <v>1</v>
-      </c>
-      <c r="C136" s="58">
+      <c r="B136" s="57">
+        <v>1</v>
+      </c>
+      <c r="C136" s="57">
         <v>16520</v>
       </c>
-      <c r="D136" s="59" t="s">
+      <c r="D136" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E136" s="58"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="61"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="60"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="57" t="s">
+      <c r="A137" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B137" s="58">
-        <v>1</v>
-      </c>
-      <c r="C137" s="58">
+      <c r="B137" s="57">
+        <v>1</v>
+      </c>
+      <c r="C137" s="57">
         <v>16523</v>
       </c>
-      <c r="D137" s="59" t="s">
+      <c r="D137" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="E137" s="58"/>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58"/>
-      <c r="H137" s="62"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="61"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="57" t="s">
+      <c r="A138" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="58">
-        <v>1</v>
-      </c>
-      <c r="C138" s="58">
+      <c r="B138" s="57">
+        <v>1</v>
+      </c>
+      <c r="C138" s="57">
         <v>16524</v>
       </c>
-      <c r="D138" s="59" t="s">
+      <c r="D138" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="E138" s="58"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="61"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="60"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="57" t="s">
+      <c r="A139" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B139" s="58">
-        <v>1</v>
-      </c>
-      <c r="C139" s="58">
+      <c r="B139" s="57">
+        <v>1</v>
+      </c>
+      <c r="C139" s="57">
         <v>16527</v>
       </c>
-      <c r="D139" s="59" t="s">
+      <c r="D139" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="58"/>
-      <c r="H139" s="62"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="61"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="57" t="s">
+      <c r="A140" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B140" s="58">
+      <c r="B140" s="57">
         <v>6</v>
       </c>
-      <c r="C140" s="58">
+      <c r="C140" s="57">
         <v>16529</v>
       </c>
-      <c r="D140" s="59" t="s">
+      <c r="D140" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E140" s="58"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="61"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="60"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="57" t="s">
+      <c r="A141" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B141" s="58">
+      <c r="B141" s="57">
         <v>6</v>
       </c>
-      <c r="C141" s="58">
+      <c r="C141" s="57">
         <v>16530</v>
       </c>
-      <c r="D141" s="59" t="s">
+      <c r="D141" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="62"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="61"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="57" t="s">
+      <c r="A142" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B142" s="58">
+      <c r="B142" s="57">
         <v>6</v>
       </c>
-      <c r="C142" s="58">
+      <c r="C142" s="57">
         <v>16531</v>
       </c>
-      <c r="D142" s="59" t="s">
+      <c r="D142" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="E142" s="58"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="61"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="60"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="57" t="s">
+      <c r="A143" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B143" s="58">
+      <c r="B143" s="57">
         <v>6</v>
       </c>
-      <c r="C143" s="58">
+      <c r="C143" s="57">
         <v>16532</v>
       </c>
-      <c r="D143" s="59" t="s">
+      <c r="D143" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="62"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="61"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="57" t="s">
+      <c r="A144" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B144" s="58">
-        <v>1</v>
-      </c>
-      <c r="C144" s="58">
+      <c r="B144" s="57">
+        <v>1</v>
+      </c>
+      <c r="C144" s="57">
         <v>16534</v>
       </c>
-      <c r="D144" s="59" t="s">
+      <c r="D144" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="E144" s="58"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="61"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="60"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="57" t="s">
+      <c r="A145" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B145" s="58">
+      <c r="B145" s="57">
         <v>6</v>
       </c>
-      <c r="C145" s="58">
+      <c r="C145" s="57">
         <v>16535</v>
       </c>
-      <c r="D145" s="59" t="s">
+      <c r="D145" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="62"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="61"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="57" t="s">
+      <c r="A146" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B146" s="58">
+      <c r="B146" s="57">
         <v>21</v>
       </c>
-      <c r="C146" s="58">
+      <c r="C146" s="57">
         <v>16537</v>
       </c>
-      <c r="D146" s="59" t="s">
+      <c r="D146" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="E146" s="58"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="61"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="60"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="57" t="s">
+      <c r="A147" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B147" s="58">
-        <v>1</v>
-      </c>
-      <c r="C147" s="58">
+      <c r="B147" s="57">
+        <v>1</v>
+      </c>
+      <c r="C147" s="57">
         <v>16540</v>
       </c>
-      <c r="D147" s="59" t="s">
+      <c r="D147" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="58"/>
-      <c r="H147" s="62"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="61"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B148" s="58">
-        <v>1</v>
-      </c>
-      <c r="C148" s="58">
+      <c r="B148" s="57">
+        <v>1</v>
+      </c>
+      <c r="C148" s="57">
         <v>16541</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="E148" s="58"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="61"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="59"/>
+      <c r="H148" s="60"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="57" t="s">
+      <c r="A149" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B149" s="58">
-        <v>1</v>
-      </c>
-      <c r="C149" s="58">
+      <c r="B149" s="57">
+        <v>1</v>
+      </c>
+      <c r="C149" s="57">
         <v>16542</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D149" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="62"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="61"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="57" t="s">
+      <c r="A150" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B150" s="58">
-        <v>1</v>
-      </c>
-      <c r="C150" s="58">
+      <c r="B150" s="57">
+        <v>1</v>
+      </c>
+      <c r="C150" s="57">
         <v>16543</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="E150" s="58"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="61"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="60"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="57" t="s">
+      <c r="A151" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B151" s="58">
-        <v>1</v>
-      </c>
-      <c r="C151" s="58">
+      <c r="B151" s="57">
+        <v>1</v>
+      </c>
+      <c r="C151" s="57">
         <v>16544</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D151" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="62"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="61"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="58">
-        <v>4</v>
-      </c>
-      <c r="C152" s="58">
+      <c r="B152" s="57">
+        <v>4</v>
+      </c>
+      <c r="C152" s="57">
         <v>16547</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D152" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="E152" s="58"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="61"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="60"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="57" t="s">
+      <c r="A153" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="58">
-        <v>4</v>
-      </c>
-      <c r="C153" s="58">
+      <c r="B153" s="57">
+        <v>4</v>
+      </c>
+      <c r="C153" s="57">
         <v>16548</v>
       </c>
-      <c r="D153" s="59" t="s">
+      <c r="D153" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="E153" s="58"/>
-      <c r="F153" s="58"/>
-      <c r="G153" s="58"/>
-      <c r="H153" s="62"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="61"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="57" t="s">
+      <c r="A154" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="58">
-        <v>4</v>
-      </c>
-      <c r="C154" s="58">
+      <c r="B154" s="57">
+        <v>4</v>
+      </c>
+      <c r="C154" s="57">
         <v>16549</v>
       </c>
-      <c r="D154" s="59" t="s">
+      <c r="D154" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="E154" s="58"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="61"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="60"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="57" t="s">
+      <c r="A155" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B155" s="58">
-        <v>4</v>
-      </c>
-      <c r="C155" s="58">
+      <c r="B155" s="57">
+        <v>4</v>
+      </c>
+      <c r="C155" s="57">
         <v>16550</v>
       </c>
-      <c r="D155" s="59" t="s">
+      <c r="D155" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="E155" s="58"/>
-      <c r="F155" s="58"/>
-      <c r="G155" s="58"/>
-      <c r="H155" s="62"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="61"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="57" t="s">
+      <c r="A156" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B156" s="58">
-        <v>4</v>
-      </c>
-      <c r="C156" s="58">
+      <c r="B156" s="57">
+        <v>4</v>
+      </c>
+      <c r="C156" s="57">
         <v>16551</v>
       </c>
-      <c r="D156" s="59" t="s">
+      <c r="D156" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="E156" s="58"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="61"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="60"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="57" t="s">
+      <c r="A157" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B157" s="58">
-        <v>1</v>
-      </c>
-      <c r="C157" s="58">
+      <c r="B157" s="57">
+        <v>1</v>
+      </c>
+      <c r="C157" s="57">
         <v>16554</v>
       </c>
-      <c r="D157" s="59" t="s">
+      <c r="D157" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="62"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="61"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="57" t="s">
+      <c r="A158" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="58">
-        <v>4</v>
-      </c>
-      <c r="C158" s="58">
+      <c r="B158" s="57">
+        <v>4</v>
+      </c>
+      <c r="C158" s="57">
         <v>16555</v>
       </c>
-      <c r="D158" s="59" t="s">
+      <c r="D158" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="E158" s="58"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="61"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="60"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="57" t="s">
+      <c r="A159" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B159" s="58">
-        <v>4</v>
-      </c>
-      <c r="C159" s="58">
+      <c r="B159" s="57">
+        <v>4</v>
+      </c>
+      <c r="C159" s="57">
         <v>16556</v>
       </c>
-      <c r="D159" s="59" t="s">
+      <c r="D159" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="62"/>
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="61"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="57" t="s">
+      <c r="A160" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B160" s="58">
-        <v>1</v>
-      </c>
-      <c r="C160" s="58">
+      <c r="B160" s="57">
+        <v>1</v>
+      </c>
+      <c r="C160" s="57">
         <v>16557</v>
       </c>
-      <c r="D160" s="59" t="s">
+      <c r="D160" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="E160" s="58"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="61"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="60"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="57" t="s">
+      <c r="A161" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="58">
-        <v>1</v>
-      </c>
-      <c r="C161" s="58">
+      <c r="B161" s="57">
+        <v>1</v>
+      </c>
+      <c r="C161" s="57">
         <v>16558</v>
       </c>
-      <c r="D161" s="59" t="s">
+      <c r="D161" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="E161" s="58"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="62"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="61"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="57" t="s">
+      <c r="A162" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B162" s="58">
-        <v>1</v>
-      </c>
-      <c r="C162" s="58">
+      <c r="B162" s="57">
+        <v>1</v>
+      </c>
+      <c r="C162" s="57">
         <v>16562</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E162" s="58"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="61"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="60"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="57" t="s">
+      <c r="A163" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B163" s="58">
-        <v>1</v>
-      </c>
-      <c r="C163" s="58">
+      <c r="B163" s="57">
+        <v>1</v>
+      </c>
+      <c r="C163" s="57">
         <v>16563</v>
       </c>
-      <c r="D163" s="59" t="s">
+      <c r="D163" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="58"/>
-      <c r="H163" s="62"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="61"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="57" t="s">
+      <c r="A164" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B164" s="58">
-        <v>1</v>
-      </c>
-      <c r="C164" s="58">
+      <c r="B164" s="57">
+        <v>1</v>
+      </c>
+      <c r="C164" s="57">
         <v>16564</v>
       </c>
-      <c r="D164" s="59" t="s">
+      <c r="D164" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="E164" s="58"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="61"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="60"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="57" t="s">
+      <c r="A165" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B165" s="58">
-        <v>1</v>
-      </c>
-      <c r="C165" s="58">
+      <c r="B165" s="57">
+        <v>1</v>
+      </c>
+      <c r="C165" s="57">
         <v>16565</v>
       </c>
-      <c r="D165" s="59" t="s">
+      <c r="D165" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="62"/>
+      <c r="E165" s="57"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="61"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="57" t="s">
+      <c r="A166" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B166" s="58">
-        <v>1</v>
-      </c>
-      <c r="C166" s="58">
+      <c r="B166" s="57">
+        <v>1</v>
+      </c>
+      <c r="C166" s="57">
         <v>16566</v>
       </c>
-      <c r="D166" s="59" t="s">
+      <c r="D166" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="58"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="61"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="60"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="57" t="s">
+      <c r="A167" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B167" s="58">
-        <v>1</v>
-      </c>
-      <c r="C167" s="58">
+      <c r="B167" s="57">
+        <v>1</v>
+      </c>
+      <c r="C167" s="57">
         <v>16567</v>
       </c>
-      <c r="D167" s="59" t="s">
+      <c r="D167" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="E167" s="58"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="58"/>
-      <c r="H167" s="62"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="61"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="57" t="s">
+      <c r="A168" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B168" s="58">
-        <v>1</v>
-      </c>
-      <c r="C168" s="58">
+      <c r="B168" s="57">
+        <v>1</v>
+      </c>
+      <c r="C168" s="57">
         <v>16568</v>
       </c>
-      <c r="D168" s="59" t="s">
+      <c r="D168" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="E168" s="58"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="61"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="60"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="57" t="s">
+      <c r="A169" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B169" s="58">
-        <v>1</v>
-      </c>
-      <c r="C169" s="58">
+      <c r="B169" s="57">
+        <v>1</v>
+      </c>
+      <c r="C169" s="57">
         <v>16569</v>
       </c>
-      <c r="D169" s="59" t="s">
+      <c r="D169" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="62"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="61"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="57" t="s">
+      <c r="A170" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="58">
-        <v>4</v>
-      </c>
-      <c r="C170" s="58">
+      <c r="B170" s="57">
+        <v>4</v>
+      </c>
+      <c r="C170" s="57">
         <v>16572</v>
       </c>
-      <c r="D170" s="59" t="s">
+      <c r="D170" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="E170" s="58"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="61"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="60"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="57" t="s">
+      <c r="A171" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B171" s="58">
-        <v>1</v>
-      </c>
-      <c r="C171" s="58">
+      <c r="B171" s="57">
+        <v>1</v>
+      </c>
+      <c r="C171" s="57">
         <v>16575</v>
       </c>
-      <c r="D171" s="59" t="s">
+      <c r="D171" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="62"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="61"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="57" t="s">
+      <c r="A172" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="58">
-        <v>4</v>
-      </c>
-      <c r="C172" s="58">
+      <c r="B172" s="57">
+        <v>4</v>
+      </c>
+      <c r="C172" s="57">
         <v>16578</v>
       </c>
-      <c r="D172" s="59" t="s">
+      <c r="D172" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="E172" s="58"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="61"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="60"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="57" t="s">
+      <c r="A173" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="58">
-        <v>4</v>
-      </c>
-      <c r="C173" s="58">
+      <c r="B173" s="57">
+        <v>4</v>
+      </c>
+      <c r="C173" s="57">
         <v>16579</v>
       </c>
-      <c r="D173" s="59" t="s">
+      <c r="D173" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="E173" s="58"/>
-      <c r="F173" s="58"/>
-      <c r="G173" s="58"/>
-      <c r="H173" s="62"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="61"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="57" t="s">
+      <c r="A174" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B174" s="58">
-        <v>4</v>
-      </c>
-      <c r="C174" s="58">
+      <c r="B174" s="57">
+        <v>4</v>
+      </c>
+      <c r="C174" s="57">
         <v>16580</v>
       </c>
-      <c r="D174" s="59" t="s">
+      <c r="D174" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="E174" s="58"/>
-      <c r="F174" s="60"/>
-      <c r="G174" s="60"/>
-      <c r="H174" s="61"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="59"/>
+      <c r="G174" s="59"/>
+      <c r="H174" s="60"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="57" t="s">
+      <c r="A175" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B175" s="58">
-        <v>1</v>
-      </c>
-      <c r="C175" s="58">
+      <c r="B175" s="57">
+        <v>1</v>
+      </c>
+      <c r="C175" s="57">
         <v>16581</v>
       </c>
-      <c r="D175" s="59" t="s">
+      <c r="D175" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="58"/>
-      <c r="H175" s="62"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="61"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="57" t="s">
+      <c r="A176" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B176" s="58">
-        <v>1</v>
-      </c>
-      <c r="C176" s="58">
+      <c r="B176" s="57">
+        <v>1</v>
+      </c>
+      <c r="C176" s="57">
         <v>16582</v>
       </c>
-      <c r="D176" s="59" t="s">
+      <c r="D176" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E176" s="58"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="61"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="59"/>
+      <c r="H176" s="60"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="57" t="s">
+      <c r="A177" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B177" s="58">
-        <v>4</v>
-      </c>
-      <c r="C177" s="58">
+      <c r="B177" s="57">
+        <v>4</v>
+      </c>
+      <c r="C177" s="57">
         <v>16583</v>
       </c>
-      <c r="D177" s="59" t="s">
+      <c r="D177" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="62"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="61"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="57" t="s">
+      <c r="A178" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="58">
-        <v>4</v>
-      </c>
-      <c r="C178" s="58">
+      <c r="B178" s="57">
+        <v>4</v>
+      </c>
+      <c r="C178" s="57">
         <v>16584</v>
       </c>
-      <c r="D178" s="59" t="s">
+      <c r="D178" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="E178" s="58"/>
-      <c r="F178" s="60"/>
-      <c r="G178" s="60"/>
-      <c r="H178" s="61"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="59"/>
+      <c r="H178" s="60"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="57" t="s">
+      <c r="A179" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B179" s="58">
-        <v>1</v>
-      </c>
-      <c r="C179" s="58">
+      <c r="B179" s="57">
+        <v>1</v>
+      </c>
+      <c r="C179" s="57">
         <v>16585</v>
       </c>
-      <c r="D179" s="59" t="s">
+      <c r="D179" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="E179" s="58"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="58"/>
-      <c r="H179" s="62"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="61"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="57" t="s">
+      <c r="A180" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B180" s="58">
-        <v>1</v>
-      </c>
-      <c r="C180" s="58">
+      <c r="B180" s="57">
+        <v>1</v>
+      </c>
+      <c r="C180" s="57">
         <v>16586</v>
       </c>
-      <c r="D180" s="59" t="s">
+      <c r="D180" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E180" s="58"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="61"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="60"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="57" t="s">
+      <c r="A181" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B181" s="58">
-        <v>1</v>
-      </c>
-      <c r="C181" s="58">
+      <c r="B181" s="57">
+        <v>1</v>
+      </c>
+      <c r="C181" s="57">
         <v>16587</v>
       </c>
-      <c r="D181" s="59" t="s">
+      <c r="D181" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="62"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="61"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="57" t="s">
+      <c r="A182" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B182" s="58">
-        <v>4</v>
-      </c>
-      <c r="C182" s="58">
+      <c r="B182" s="57">
+        <v>4</v>
+      </c>
+      <c r="C182" s="57">
         <v>16588</v>
       </c>
-      <c r="D182" s="59" t="s">
+      <c r="D182" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="E182" s="58"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="61"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="60"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="57" t="s">
+      <c r="A183" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B183" s="58">
-        <v>4</v>
-      </c>
-      <c r="C183" s="58">
+      <c r="B183" s="57">
+        <v>4</v>
+      </c>
+      <c r="C183" s="57">
         <v>16589</v>
       </c>
-      <c r="D183" s="59" t="s">
+      <c r="D183" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="E183" s="58"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="58"/>
-      <c r="H183" s="62"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="61"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="57" t="s">
+      <c r="A184" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B184" s="58">
-        <v>4</v>
-      </c>
-      <c r="C184" s="58">
+      <c r="B184" s="57">
+        <v>4</v>
+      </c>
+      <c r="C184" s="57">
         <v>16590</v>
       </c>
-      <c r="D184" s="59" t="s">
+      <c r="D184" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E184" s="58"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="60"/>
-      <c r="H184" s="61"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="60"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="57" t="s">
+      <c r="A185" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B185" s="58">
-        <v>4</v>
-      </c>
-      <c r="C185" s="58">
+      <c r="B185" s="57">
+        <v>4</v>
+      </c>
+      <c r="C185" s="57">
         <v>16591</v>
       </c>
-      <c r="D185" s="59" t="s">
+      <c r="D185" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="E185" s="58"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="58"/>
-      <c r="H185" s="62"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="61"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="57" t="s">
+      <c r="A186" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B186" s="58">
-        <v>4</v>
-      </c>
-      <c r="C186" s="58">
+      <c r="B186" s="57">
+        <v>4</v>
+      </c>
+      <c r="C186" s="57">
         <v>16592</v>
       </c>
-      <c r="D186" s="59" t="s">
+      <c r="D186" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="E186" s="58"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="61"/>
+      <c r="E186" s="57"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="60"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="57" t="s">
+      <c r="A187" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B187" s="58">
-        <v>4</v>
-      </c>
-      <c r="C187" s="58">
+      <c r="B187" s="57">
+        <v>4</v>
+      </c>
+      <c r="C187" s="57">
         <v>16593</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="D187" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="E187" s="58"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="58"/>
-      <c r="H187" s="62"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="61"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="57" t="s">
+      <c r="A188" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B188" s="58">
-        <v>4</v>
-      </c>
-      <c r="C188" s="58">
+      <c r="B188" s="57">
+        <v>4</v>
+      </c>
+      <c r="C188" s="57">
         <v>16594</v>
       </c>
-      <c r="D188" s="59" t="s">
+      <c r="D188" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E188" s="58"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="61"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="59"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="60"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="57" t="s">
+      <c r="A189" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B189" s="58">
-        <v>4</v>
-      </c>
-      <c r="C189" s="58">
+      <c r="B189" s="57">
+        <v>4</v>
+      </c>
+      <c r="C189" s="57">
         <v>16595</v>
       </c>
-      <c r="D189" s="59" t="s">
+      <c r="D189" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E189" s="58"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="58"/>
-      <c r="H189" s="62"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="61"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="57" t="s">
+      <c r="A190" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B190" s="58">
-        <v>4</v>
-      </c>
-      <c r="C190" s="58">
+      <c r="B190" s="57">
+        <v>4</v>
+      </c>
+      <c r="C190" s="57">
         <v>16596</v>
       </c>
-      <c r="D190" s="59" t="s">
+      <c r="D190" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="58"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="61"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="60"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="57" t="s">
+      <c r="A191" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B191" s="58">
-        <v>4</v>
-      </c>
-      <c r="C191" s="58">
+      <c r="B191" s="57">
+        <v>4</v>
+      </c>
+      <c r="C191" s="57">
         <v>16597</v>
       </c>
-      <c r="D191" s="59" t="s">
+      <c r="D191" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="62"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="61"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="57" t="s">
+      <c r="A192" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B192" s="58">
-        <v>4</v>
-      </c>
-      <c r="C192" s="58">
+      <c r="B192" s="57">
+        <v>4</v>
+      </c>
+      <c r="C192" s="57">
         <v>16598</v>
       </c>
-      <c r="D192" s="59" t="s">
+      <c r="D192" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="E192" s="58"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="61"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="60"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="57" t="s">
+      <c r="A193" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B193" s="58">
-        <v>4</v>
-      </c>
-      <c r="C193" s="58">
+      <c r="B193" s="57">
+        <v>4</v>
+      </c>
+      <c r="C193" s="57">
         <v>16599</v>
       </c>
-      <c r="D193" s="59" t="s">
+      <c r="D193" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="62"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="61"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="57" t="s">
+      <c r="A194" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B194" s="58">
-        <v>4</v>
-      </c>
-      <c r="C194" s="58">
+      <c r="B194" s="57">
+        <v>4</v>
+      </c>
+      <c r="C194" s="57">
         <v>16600</v>
       </c>
-      <c r="D194" s="59" t="s">
+      <c r="D194" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E194" s="58"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="61"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="59"/>
+      <c r="G194" s="59"/>
+      <c r="H194" s="60"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="57" t="s">
+      <c r="A195" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B195" s="58">
-        <v>4</v>
-      </c>
-      <c r="C195" s="58">
+      <c r="B195" s="57">
+        <v>4</v>
+      </c>
+      <c r="C195" s="57">
         <v>16601</v>
       </c>
-      <c r="D195" s="59" t="s">
+      <c r="D195" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="62"/>
+      <c r="E195" s="57"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="61"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="57" t="s">
+      <c r="A196" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B196" s="58">
-        <v>4</v>
-      </c>
-      <c r="C196" s="58">
+      <c r="B196" s="57">
+        <v>4</v>
+      </c>
+      <c r="C196" s="57">
         <v>16602</v>
       </c>
-      <c r="D196" s="59" t="s">
+      <c r="D196" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="E196" s="58"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="61"/>
+      <c r="E196" s="57"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="60"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="57" t="s">
+      <c r="A197" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B197" s="58">
-        <v>4</v>
-      </c>
-      <c r="C197" s="58">
+      <c r="B197" s="57">
+        <v>4</v>
+      </c>
+      <c r="C197" s="57">
         <v>16603</v>
       </c>
-      <c r="D197" s="59" t="s">
+      <c r="D197" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="62"/>
+      <c r="E197" s="57"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="61"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="57" t="s">
+      <c r="A198" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B198" s="58">
-        <v>4</v>
-      </c>
-      <c r="C198" s="58">
+      <c r="B198" s="57">
+        <v>4</v>
+      </c>
+      <c r="C198" s="57">
         <v>16604</v>
       </c>
-      <c r="D198" s="59" t="s">
+      <c r="D198" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="E198" s="58"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="60"/>
-      <c r="H198" s="61"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="60"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="57" t="s">
+      <c r="A199" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B199" s="58">
-        <v>4</v>
-      </c>
-      <c r="C199" s="58">
+      <c r="B199" s="57">
+        <v>4</v>
+      </c>
+      <c r="C199" s="57">
         <v>16605</v>
       </c>
-      <c r="D199" s="59" t="s">
+      <c r="D199" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="E199" s="58"/>
-      <c r="F199" s="58"/>
-      <c r="G199" s="58"/>
-      <c r="H199" s="62"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="61"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="57" t="s">
+      <c r="A200" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B200" s="58">
-        <v>4</v>
-      </c>
-      <c r="C200" s="58">
+      <c r="B200" s="57">
+        <v>4</v>
+      </c>
+      <c r="C200" s="57">
         <v>16606</v>
       </c>
-      <c r="D200" s="59" t="s">
+      <c r="D200" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="E200" s="58"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="60"/>
-      <c r="H200" s="61"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
+      <c r="H200" s="60"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="57" t="s">
+      <c r="A201" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B201" s="58">
-        <v>4</v>
-      </c>
-      <c r="C201" s="58">
+      <c r="B201" s="57">
+        <v>4</v>
+      </c>
+      <c r="C201" s="57">
         <v>16607</v>
       </c>
-      <c r="D201" s="59" t="s">
+      <c r="D201" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="E201" s="58"/>
-      <c r="F201" s="58"/>
-      <c r="G201" s="58"/>
-      <c r="H201" s="62"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="61"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="57" t="s">
+      <c r="A202" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B202" s="58">
-        <v>4</v>
-      </c>
-      <c r="C202" s="58">
+      <c r="B202" s="57">
+        <v>4</v>
+      </c>
+      <c r="C202" s="57">
         <v>16608</v>
       </c>
-      <c r="D202" s="59" t="s">
+      <c r="D202" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="E202" s="58"/>
-      <c r="F202" s="60"/>
-      <c r="G202" s="60"/>
-      <c r="H202" s="61"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="60"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="57" t="s">
+      <c r="A203" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B203" s="58">
-        <v>4</v>
-      </c>
-      <c r="C203" s="58">
+      <c r="B203" s="57">
+        <v>4</v>
+      </c>
+      <c r="C203" s="57">
         <v>16609</v>
       </c>
-      <c r="D203" s="59" t="s">
+      <c r="D203" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="E203" s="58"/>
-      <c r="F203" s="58"/>
-      <c r="G203" s="58"/>
-      <c r="H203" s="62"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="61"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="57" t="s">
+      <c r="A204" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B204" s="58">
-        <v>4</v>
-      </c>
-      <c r="C204" s="58">
+      <c r="B204" s="57">
+        <v>4</v>
+      </c>
+      <c r="C204" s="57">
         <v>16610</v>
       </c>
-      <c r="D204" s="59" t="s">
+      <c r="D204" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="E204" s="58"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="60"/>
-      <c r="H204" s="61"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="59"/>
+      <c r="G204" s="59"/>
+      <c r="H204" s="60"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="57" t="s">
+      <c r="A205" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="58">
-        <v>4</v>
-      </c>
-      <c r="C205" s="58">
+      <c r="B205" s="57">
+        <v>4</v>
+      </c>
+      <c r="C205" s="57">
         <v>16611</v>
       </c>
-      <c r="D205" s="59" t="s">
+      <c r="D205" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="E205" s="58"/>
-      <c r="F205" s="58"/>
-      <c r="G205" s="58"/>
-      <c r="H205" s="62"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="61"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="57" t="s">
+      <c r="A206" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B206" s="58">
-        <v>4</v>
-      </c>
-      <c r="C206" s="58">
+      <c r="B206" s="57">
+        <v>4</v>
+      </c>
+      <c r="C206" s="57">
         <v>16612</v>
       </c>
-      <c r="D206" s="59" t="s">
+      <c r="D206" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="E206" s="58"/>
-      <c r="F206" s="60"/>
-      <c r="G206" s="60"/>
-      <c r="H206" s="61"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="59"/>
+      <c r="G206" s="59"/>
+      <c r="H206" s="60"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="57" t="s">
+      <c r="A207" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B207" s="58">
-        <v>4</v>
-      </c>
-      <c r="C207" s="58">
+      <c r="B207" s="57">
+        <v>4</v>
+      </c>
+      <c r="C207" s="57">
         <v>16613</v>
       </c>
-      <c r="D207" s="59" t="s">
+      <c r="D207" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="62"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="61"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="57" t="s">
+      <c r="A208" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B208" s="58">
-        <v>4</v>
-      </c>
-      <c r="C208" s="58">
+      <c r="B208" s="57">
+        <v>4</v>
+      </c>
+      <c r="C208" s="57">
         <v>16614</v>
       </c>
-      <c r="D208" s="59" t="s">
+      <c r="D208" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E208" s="58"/>
-      <c r="F208" s="60"/>
-      <c r="G208" s="60"/>
-      <c r="H208" s="61"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="59"/>
+      <c r="G208" s="59"/>
+      <c r="H208" s="60"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="57" t="s">
+      <c r="A209" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B209" s="58">
-        <v>4</v>
-      </c>
-      <c r="C209" s="58">
+      <c r="B209" s="57">
+        <v>4</v>
+      </c>
+      <c r="C209" s="57">
         <v>16615</v>
       </c>
-      <c r="D209" s="59" t="s">
+      <c r="D209" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="E209" s="58"/>
-      <c r="F209" s="58"/>
-      <c r="G209" s="58"/>
-      <c r="H209" s="62"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="61"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="57" t="s">
+      <c r="A210" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B210" s="58">
-        <v>4</v>
-      </c>
-      <c r="C210" s="58">
+      <c r="B210" s="57">
+        <v>4</v>
+      </c>
+      <c r="C210" s="57">
         <v>16616</v>
       </c>
-      <c r="D210" s="59" t="s">
+      <c r="D210" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="E210" s="58"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="60"/>
-      <c r="H210" s="61"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="59"/>
+      <c r="G210" s="59"/>
+      <c r="H210" s="60"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="57" t="s">
+      <c r="A211" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B211" s="58">
-        <v>4</v>
-      </c>
-      <c r="C211" s="58">
+      <c r="B211" s="57">
+        <v>4</v>
+      </c>
+      <c r="C211" s="57">
         <v>16617</v>
       </c>
-      <c r="D211" s="59" t="s">
+      <c r="D211" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="E211" s="58"/>
-      <c r="F211" s="58"/>
-      <c r="G211" s="58"/>
-      <c r="H211" s="62"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="61"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="57" t="s">
+      <c r="A212" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B212" s="58">
-        <v>4</v>
-      </c>
-      <c r="C212" s="58">
+      <c r="B212" s="57">
+        <v>4</v>
+      </c>
+      <c r="C212" s="57">
         <v>16618</v>
       </c>
-      <c r="D212" s="59" t="s">
+      <c r="D212" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="E212" s="58"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="60"/>
-      <c r="H212" s="61"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="59"/>
+      <c r="G212" s="59"/>
+      <c r="H212" s="60"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B213" s="66">
-        <v>4</v>
-      </c>
-      <c r="C213" s="66">
+      <c r="B213" s="65">
+        <v>4</v>
+      </c>
+      <c r="C213" s="65">
         <v>16619</v>
       </c>
-      <c r="D213" s="67" t="s">
+      <c r="D213" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="E213" s="66"/>
-      <c r="F213" s="66"/>
-      <c r="G213" s="66"/>
-      <c r="H213" s="68"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="65"/>
+      <c r="G213" s="65"/>
+      <c r="H213" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7017,12 +6944,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E30A6EB-327E-4983-9C0D-2663667029B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D277E1D-6F51-46C5-A331-0CFC2F7D453D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798B22B-0FF5-4D2A-9200-06127424AD1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0668CD6-4534-412F-B8B9-B2537500E481}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7803EE-C0E4-4741-A3FF-1EBA7BD0042A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0255644A-1374-4EAD-AF1C-8802895D8300}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA7F953-7E39-4853-8AC2-95EECE938268}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB86B2C-5D44-4E94-8505-3C1D151F81EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0738C041-63D5-4315-B4DF-A9CB9C7A1BCC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC356B-6A06-4388-B18A-372EF7B6E508}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BDFFEC-2923-4618-838B-D44A7E4EEB02}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7036,19 +7089,19 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1">
       <c r="B3" s="24" t="s">
@@ -7198,7 +7251,7 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="7">
@@ -7222,7 +7275,7 @@
       <c r="D10" s="5">
         <v>40</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="69"/>
       <c r="G10" s="7">
         <v>5</v>
       </c>
@@ -7244,7 +7297,7 @@
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="70"/>
+      <c r="E11" s="69"/>
       <c r="G11" s="7">
         <v>6</v>
       </c>
@@ -7266,7 +7319,7 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="69"/>
       <c r="G12" s="7">
         <v>7</v>
       </c>
@@ -7290,7 +7343,7 @@
       <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="69"/>
       <c r="G13" s="7">
         <v>8</v>
       </c>
@@ -7300,7 +7353,7 @@
       <c r="I13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="73" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7314,7 +7367,7 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="69"/>
       <c r="G14" s="7">
         <v>9</v>
       </c>
@@ -7324,7 +7377,7 @@
       <c r="I14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="7">
@@ -7336,7 +7389,7 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="69"/>
       <c r="G15" s="7">
         <v>10</v>
       </c>
@@ -7346,7 +7399,7 @@
       <c r="I15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="75"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="7">
@@ -7358,7 +7411,7 @@
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="69"/>
       <c r="G16" s="7">
         <v>11</v>
       </c>
@@ -7368,7 +7421,7 @@
       <c r="I16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="7">
@@ -7380,7 +7433,7 @@
       <c r="D17" s="4">
         <v>30</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="69"/>
       <c r="G17" s="7">
         <v>12</v>
       </c>
@@ -7390,7 +7443,7 @@
       <c r="I17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="7">
@@ -7402,7 +7455,7 @@
       <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="69"/>
       <c r="G18" s="7">
         <v>13</v>
       </c>
@@ -7412,7 +7465,7 @@
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="75"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="7">
@@ -7424,7 +7477,7 @@
       <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="70"/>
+      <c r="E19" s="69"/>
       <c r="G19" s="7">
         <v>14</v>
       </c>
@@ -7434,7 +7487,7 @@
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="75"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="7">
@@ -7446,7 +7499,7 @@
       <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="70"/>
+      <c r="E20" s="69"/>
       <c r="G20" s="7">
         <v>15</v>
       </c>
@@ -7456,7 +7509,7 @@
       <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="75"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="7">
@@ -7468,7 +7521,7 @@
       <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="70"/>
+      <c r="E21" s="69"/>
       <c r="G21" s="7">
         <v>16</v>
       </c>
@@ -7478,7 +7531,7 @@
       <c r="I21" s="4">
         <v>30</v>
       </c>
-      <c r="J21" s="75"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="7">
@@ -7490,7 +7543,7 @@
       <c r="D22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="70"/>
+      <c r="E22" s="69"/>
       <c r="G22" s="7">
         <v>17</v>
       </c>
@@ -7500,7 +7553,7 @@
       <c r="I22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="75"/>
+      <c r="J22" s="74"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1">
       <c r="B23" s="11">
@@ -7522,7 +7575,7 @@
       <c r="I23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="75"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="2:10">
       <c r="G24" s="7">
@@ -7534,7 +7587,7 @@
       <c r="I24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="75"/>
+      <c r="J24" s="74"/>
     </row>
     <row r="25" spans="2:10">
       <c r="G25" s="7">
@@ -7546,7 +7599,7 @@
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="75"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="2:10">
       <c r="G26" s="7">
@@ -7558,7 +7611,7 @@
       <c r="I26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="76"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1">
       <c r="G27" s="11">
@@ -7583,6 +7636,126 @@
   <ignoredErrors>
     <ignoredError sqref="D9:D22" numberStoredAsText="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58712490-7BF6-4AE0-8542-BF079159F436}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E212-85C5-46C3-B115-8B7E0F2C43CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97E661C-62F2-48F8-BC32-6BA5AA006FCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC89F12-9149-4C32-8814-B61637628DA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FD69FB-8DCA-4A95-8BB0-A20F99D404E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B8DE7-315B-45C4-A0ED-87430E7B5CFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CB83BD-150B-4209-BD67-7D3C3D7C7BB0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D482B5E-5B03-48AB-9775-11FB2B807977}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267CDA47-600C-4E47-B145-D19CF0B8D3BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146ABB6C-D9E4-4342-AE7D-715ABDCFC8B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -7612,36 +7785,36 @@
       <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="H2" s="77" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="H2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="H3" s="71" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="H3" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1">
       <c r="B4" s="20" t="s">
@@ -7653,10 +7826,10 @@
       <c r="D4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="82"/>
       <c r="H4" s="28" t="s">
         <v>0</v>
       </c>
@@ -7666,10 +7839,10 @@
       <c r="J4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="86"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7" t="s">
@@ -7679,10 +7852,10 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="83"/>
+      <c r="F5" s="80"/>
       <c r="H5" s="20" t="s">
         <v>5</v>
       </c>
@@ -7690,10 +7863,10 @@
       <c r="J5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="88"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="7">
@@ -7703,10 +7876,10 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="F6" s="83"/>
+      <c r="E6" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="80"/>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -7714,10 +7887,10 @@
       <c r="J6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="L6" s="83"/>
+      <c r="K6" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="7">
@@ -7727,10 +7900,10 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="83"/>
+      <c r="F7" s="80"/>
       <c r="H7" s="7">
         <v>1</v>
       </c>
@@ -7738,10 +7911,10 @@
       <c r="J7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="7">
@@ -7751,10 +7924,10 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="80"/>
       <c r="H8" s="7">
         <v>2</v>
       </c>
@@ -7762,10 +7935,10 @@
       <c r="J8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="7">
@@ -7777,10 +7950,10 @@
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="80"/>
       <c r="H9" s="7">
         <v>3</v>
       </c>
@@ -7788,10 +7961,10 @@
       <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="80"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="7">
@@ -7803,7 +7976,7 @@
       <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -7816,10 +7989,10 @@
       <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="80"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="7">
@@ -7831,7 +8004,7 @@
       <c r="D11" s="5">
         <v>40</v>
       </c>
-      <c r="E11" s="84"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="8"/>
       <c r="H11" s="7">
         <v>5</v>
@@ -7840,10 +8013,10 @@
       <c r="J11" s="5">
         <v>66</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="80"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="7">
@@ -7855,7 +8028,7 @@
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="84"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
@@ -7866,10 +8039,10 @@
       <c r="J12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="80"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="7">
@@ -7881,7 +8054,7 @@
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="84"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
@@ -7894,10 +8067,10 @@
       <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="80"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="7">
@@ -7909,7 +8082,7 @@
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="16" t="s">
         <v>30</v>
       </c>
@@ -7922,7 +8095,7 @@
       <c r="J14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="88" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="17" t="s">
@@ -7939,7 +8112,7 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="17" t="s">
         <v>26</v>
       </c>
@@ -7952,7 +8125,7 @@
       <c r="J15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="84"/>
+      <c r="K15" s="88"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12">
@@ -7965,7 +8138,7 @@
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="35" t="s">
         <v>27</v>
       </c>
@@ -7978,7 +8151,7 @@
       <c r="J16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="84"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="8" t="s">
         <v>28</v>
       </c>
@@ -7993,7 +8166,7 @@
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="84"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
@@ -8006,7 +8179,7 @@
       <c r="J17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="84"/>
+      <c r="K17" s="88"/>
       <c r="L17" s="36" t="s">
         <v>48</v>
       </c>
@@ -8021,7 +8194,7 @@
       <c r="D18" s="4">
         <v>30</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="10" t="s">
         <v>32</v>
       </c>
@@ -8034,7 +8207,7 @@
       <c r="J18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="84"/>
+      <c r="K18" s="88"/>
       <c r="L18" s="36" t="s">
         <v>39</v>
       </c>
@@ -8049,7 +8222,7 @@
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="84"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="10" t="s">
         <v>33</v>
       </c>
@@ -8062,7 +8235,7 @@
       <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="84"/>
+      <c r="K19" s="88"/>
       <c r="L19" s="17" t="s">
         <v>26</v>
       </c>
@@ -8077,7 +8250,7 @@
       <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="84"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -8090,7 +8263,7 @@
       <c r="J20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="84"/>
+      <c r="K20" s="88"/>
       <c r="L20" s="35" t="s">
         <v>27</v>
       </c>
@@ -8105,7 +8278,7 @@
       <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="36" t="s">
         <v>49</v>
       </c>
@@ -8118,7 +8291,7 @@
       <c r="J21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="88"/>
       <c r="L21" s="8" t="s">
         <v>31</v>
       </c>
@@ -8133,7 +8306,7 @@
       <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="84"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="36" t="s">
         <v>50</v>
       </c>
@@ -8146,7 +8319,7 @@
       <c r="J22" s="4">
         <v>30</v>
       </c>
-      <c r="K22" s="84"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="10" t="s">
         <v>32</v>
       </c>
@@ -8161,7 +8334,7 @@
       <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="36" t="s">
         <v>51</v>
       </c>
@@ -8174,7 +8347,7 @@
       <c r="J23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="84"/>
+      <c r="K23" s="88"/>
       <c r="L23" s="10" t="s">
         <v>33</v>
       </c>
@@ -8187,10 +8360,10 @@
       <c r="D24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="81"/>
+      <c r="F24" s="87"/>
       <c r="H24" s="7">
         <v>18</v>
       </c>
@@ -8200,7 +8373,7 @@
       <c r="J24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="84"/>
+      <c r="K24" s="88"/>
       <c r="L24" s="8" t="s">
         <v>34</v>
       </c>
@@ -8215,7 +8388,7 @@
       <c r="J25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="84"/>
+      <c r="K25" s="88"/>
       <c r="L25" s="36" t="s">
         <v>49</v>
       </c>
@@ -8231,7 +8404,7 @@
       <c r="J26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="88"/>
       <c r="L26" s="36" t="s">
         <v>50</v>
       </c>
@@ -8247,7 +8420,7 @@
       <c r="J27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="84"/>
+      <c r="K27" s="88"/>
       <c r="L27" s="36" t="s">
         <v>51</v>
       </c>
@@ -8261,10 +8434,10 @@
       <c r="J28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="81"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:12">
       <c r="E29" s="1"/>
@@ -8505,14 +8678,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K28:L28"/>
@@ -8529,6 +8694,14 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8538,12 +8711,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329DB2B-F32D-4495-B84D-EB3F28E1D0CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032ADF58-869F-4113-BCC6-CA4F5ADDE298}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50338A2-D4CA-485F-B466-8FC644BC4505}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90136E1A-F62B-4A3A-BCF4-7EB848BA6477}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387D8D1-DB3D-400B-A0C0-535BF1A21F51}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9497CE37-54F4-4207-A80D-93C59BD4E253}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01C0888-A36D-4552-BE6A-77C8E98ABD7C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0533D-AA95-4FAF-88CF-9E4602D390F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712C9D8-1C7E-4CD3-8004-5AB4A9025CF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFD0D56-D67C-4212-A811-51B2CE6510E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC088954-1A46-4C93-922C-358758B3E4C3}">
   <dimension ref="B1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8560,22 +8855,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1">
       <c r="B4" s="28" t="s">
@@ -8587,10 +8882,10 @@
       <c r="D4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="20" t="s">
@@ -8600,10 +8895,10 @@
       <c r="D5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="7">
@@ -8613,10 +8908,10 @@
       <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="83"/>
+      <c r="E6" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="7">
@@ -8626,14 +8921,14 @@
       <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="H7" s="94" t="s">
+      <c r="F7" s="80"/>
+      <c r="H7" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="94"/>
+      <c r="I7" s="93"/>
       <c r="J7">
         <f>((-1)^J8)*(2^(J9-127))*(1+J10)</f>
         <v>1.4861602783203125</v>
@@ -8651,10 +8946,10 @@
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="80"/>
       <c r="H8" s="38" t="s">
         <v>66</v>
       </c>
@@ -8681,10 +8976,10 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="80"/>
       <c r="H9" s="38" t="s">
         <v>62</v>
       </c>
@@ -8715,10 +9010,10 @@
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="80"/>
       <c r="H10" s="38" t="s">
         <v>63</v>
       </c>
@@ -8729,7 +9024,7 @@
         <f>SUM(J12:J34)</f>
         <v>0.4861602783203125</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <f>(1+J10)</f>
         <v>1.4861602783203125</v>
       </c>
@@ -8746,24 +9041,24 @@
       <c r="D11" s="5">
         <v>66</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="80"/>
       <c r="H11" s="2"/>
       <c r="J11" t="str">
         <f>MID(TEXT(HEX2BIN(D18,8),"0000000"),2,7)&amp;TEXT(HEX2BIN(D19,8),"00000000")&amp;TEXT(HEX2BIN(D20,8),"00000000")</f>
         <v>01111100011101010000000</v>
       </c>
-      <c r="K11" s="69" t="s">
-        <v>345</v>
+      <c r="K11" s="68" t="s">
+        <v>316</v>
       </c>
       <c r="L11">
         <f>BIN2DEC(K11)</f>
         <v>4</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="2:16">
@@ -8774,10 +9069,10 @@
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="80"/>
       <c r="I12">
         <v>1</v>
       </c>
@@ -8803,10 +9098,10 @@
       <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="80"/>
       <c r="I13">
         <v>2</v>
       </c>
@@ -8832,7 +9127,7 @@
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="88" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -8863,7 +9158,7 @@
       <c r="D15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="17" t="s">
         <v>72</v>
       </c>
@@ -8892,7 +9187,7 @@
       <c r="D16" s="31">
         <v>20</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="16" t="s">
         <v>55</v>
       </c>
@@ -8921,7 +9216,7 @@
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="84"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="36" t="s">
         <v>56</v>
       </c>
@@ -8950,7 +9245,7 @@
       <c r="D18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="36" t="s">
         <v>57</v>
       </c>
@@ -8979,7 +9274,7 @@
       <c r="D19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="84"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="17" t="s">
         <v>58</v>
       </c>
@@ -9008,7 +9303,7 @@
       <c r="D20" s="5">
         <v>80</v>
       </c>
-      <c r="E20" s="84"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="17" t="s">
         <v>59</v>
       </c>
@@ -9035,10 +9330,10 @@
       <c r="D21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="81"/>
+      <c r="F21" s="87"/>
       <c r="I21">
         <v>10</v>
       </c>
@@ -9289,6 +9584,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A30BDB-44EA-4A80-B1FD-3C4821E12EF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32346CBC-80CD-4631-A687-79AD234C07CD}">
   <dimension ref="B1:L35"/>
@@ -9313,25 +9620,25 @@
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="2:12">
@@ -9344,11 +9651,11 @@
       <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:12">
@@ -9359,11 +9666,11 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="2:12">
@@ -9374,11 +9681,11 @@
       <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="E6" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="45"/>
     </row>
     <row r="7" spans="2:12">
@@ -9389,11 +9696,11 @@
       <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="45"/>
     </row>
     <row r="8" spans="2:12">
@@ -9404,16 +9711,16 @@
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="94"/>
+      <c r="J8" s="93"/>
       <c r="K8">
         <f>((-1)^K9)*(2^(K10-127))*(1+K11)</f>
         <v>1.015097953149176E-20</v>
@@ -9427,11 +9734,11 @@
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="45"/>
       <c r="I9" s="38" t="s">
         <v>66</v>
@@ -9452,11 +9759,11 @@
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="45"/>
       <c r="I10" s="38" t="s">
         <v>62</v>
@@ -9477,11 +9784,11 @@
       <c r="D11" s="5">
         <v>66</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="45"/>
       <c r="I11" s="38" t="s">
         <v>63</v>
@@ -9503,11 +9810,11 @@
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="45"/>
       <c r="I12" s="41"/>
       <c r="K12" t="str">
@@ -9525,11 +9832,11 @@
       <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="45"/>
       <c r="I13"/>
       <c r="J13">
@@ -9550,13 +9857,13 @@
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="98"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="46"/>
       <c r="I14"/>
       <c r="J14">
@@ -9577,11 +9884,11 @@
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="102" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="47"/>
@@ -9604,11 +9911,11 @@
       <c r="D16" s="31">
         <v>40</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="96"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="48"/>
       <c r="I16"/>
       <c r="J16">
@@ -9629,11 +9936,11 @@
       <c r="D17" s="31">
         <v>87</v>
       </c>
-      <c r="E17" s="84"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="96"/>
+      <c r="G17" s="103"/>
       <c r="H17" s="48"/>
       <c r="I17"/>
       <c r="J17">
@@ -9654,11 +9961,11 @@
       <c r="D18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="96"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="48"/>
       <c r="I18"/>
       <c r="J18">
@@ -9679,11 +9986,11 @@
       <c r="D19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="84"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="102" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="47"/>
@@ -9706,11 +10013,11 @@
       <c r="D20" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="84"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="96"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="48"/>
       <c r="I20"/>
       <c r="J20">
@@ -9731,11 +10038,11 @@
       <c r="D21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="96"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="48"/>
       <c r="I21"/>
       <c r="J21">
@@ -9756,11 +10063,11 @@
       <c r="D22" s="31">
         <v>20</v>
       </c>
-      <c r="E22" s="84"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="96"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="48"/>
       <c r="I22"/>
       <c r="J22">
@@ -9779,11 +10086,11 @@
       <c r="D23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E23" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="49"/>
       <c r="I23"/>
       <c r="J23">
@@ -9916,14 +10223,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B3:G3"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="G19:G22"/>
@@ -9934,6 +10233,14 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9942,667 +10249,50 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA83C64-6807-4379-A5D4-3A5CB030E9AC}">
-  <dimension ref="B1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28F1826-ADEB-419C-BDBA-8206279A206E}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="51"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1">
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B2" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="44"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B3" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="44"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="45"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="45"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="45"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="45"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="45"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="45"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="45"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5">
-        <v>66</v>
-      </c>
-      <c r="E11" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="45"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="45"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="7">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="45"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="7">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="7">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="7">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="7">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="31">
-        <v>28</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="7">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="7">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6</v>
-      </c>
-      <c r="D19" s="31">
-        <v>20</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="7">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6">
-        <v>7</v>
-      </c>
-      <c r="D20" s="31">
-        <v>14</v>
-      </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="7">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6">
-        <v>8</v>
-      </c>
-      <c r="D21" s="31">
-        <v>81</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="7">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6">
-        <v>9</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="E22" s="108"/>
-      <c r="F22" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="7">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
-        <v>41</v>
-      </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="7">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5">
-        <v>52</v>
-      </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="7">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6">
-        <v>12</v>
-      </c>
-      <c r="D25" s="31">
-        <v>15</v>
-      </c>
-      <c r="E25" s="108"/>
-      <c r="F25" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="7">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6">
-        <v>13</v>
-      </c>
-      <c r="D26" s="31">
-        <v>38</v>
-      </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="7">
-        <v>21</v>
-      </c>
-      <c r="C27" s="6">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5">
-        <v>20</v>
-      </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="7">
-        <v>22</v>
-      </c>
-      <c r="C28" s="6">
-        <v>15</v>
-      </c>
-      <c r="D28" s="31">
-        <v>82</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="7">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6">
-        <v>16</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="7">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6">
-        <v>17</v>
-      </c>
-      <c r="D30" s="31">
-        <v>20</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="7">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6">
-        <v>18</v>
-      </c>
-      <c r="D31" s="31">
-        <v>82</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="7">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="7">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5">
-        <v>20</v>
-      </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="7">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6">
-        <v>21</v>
-      </c>
-      <c r="D34" s="31">
-        <v>82</v>
-      </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="7">
-        <v>29</v>
-      </c>
-      <c r="C35" s="6">
-        <v>22</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" s="108"/>
-      <c r="F35" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="7">
-        <v>30</v>
-      </c>
-      <c r="C36" s="6">
-        <v>23</v>
-      </c>
-      <c r="D36" s="5">
-        <v>20</v>
-      </c>
-      <c r="E36" s="108"/>
-      <c r="F36" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="7">
-        <v>31</v>
-      </c>
-      <c r="C37" s="6">
-        <v>24</v>
-      </c>
-      <c r="D37" s="31">
-        <v>82</v>
-      </c>
-      <c r="E37" s="108"/>
-      <c r="F37" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="7">
-        <v>32</v>
-      </c>
-      <c r="C38" s="6">
-        <v>25</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="E38" s="108"/>
-      <c r="F38" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="7">
-        <v>33</v>
-      </c>
-      <c r="C39" s="6">
-        <v>26</v>
-      </c>
-      <c r="D39" s="31">
-        <v>20</v>
-      </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B40" s="11">
-        <v>35</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13">
-        <v>16</v>
-      </c>
-      <c r="E40" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="104"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="H41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:E39"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5936345D-BE49-473D-9DDD-3EA99C8845D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D3E7F-F67D-47BB-9D8B-879F931E4D95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425C77CE-1F01-4D1F-93DE-76514BDC7E89}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
